--- a/Finflux Automation Excels/Client/4948-Disburse1stTranche-WaiveChargeFor-2ndTranche-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4948-Disburse1stTranche-WaiveChargeFor-2ndTranche-MakeRepayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Repayment (at time of disbursement)</t>
+  </si>
+  <si>
+    <t>ReceiptNumber</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,9 +536,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>8765432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1374,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
